--- a/FINAL_PROJECT_Gerrit_Kat_04_20_2022.xlsx
+++ b/FINAL_PROJECT_Gerrit_Kat_04_20_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gerrit.kat\PROG280 - Advanced Programming\Blackjack-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B641D7E1-748F-45ED-BAFB-39FAE9703A7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E064A19-8FDF-4CEB-A203-379EFCA33E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,12 +127,12 @@
     <t>Establish a connection between players</t>
   </si>
   <si>
-    <t>2 hours</t>
-  </si>
-  <si>
     <t>1 hour</t>
   </si>
   <si>
+    <t>Finished</t>
+  </si>
+  <si>
     <t>Send Game Challenge via Chat</t>
   </si>
   <si>
@@ -145,13 +145,13 @@
     <t>Allow the host to send cards and information to the client to play a game of blackjack.</t>
   </si>
   <si>
-    <t>Majority of connection is complete, however the user scores get out of sync after long matches and disconnecting does not shut down the TCP listener.</t>
-  </si>
-  <si>
-    <t>Almost complete, need to create a method that allows the user to track their challenges to prevent issuing multiple to the same user, and a method to remove them when declined.</t>
-  </si>
-  <si>
-    <t>Most functionality working, some confusing disparities between scores of users over long matches.</t>
+    <t>Closing forms abruptly now correctly  closes the TCP connection's listener.</t>
+  </si>
+  <si>
+    <t>Challenges are now disposed when the game ends intentionally or abruptly.</t>
+  </si>
+  <si>
+    <t>Cards and turns are now correctly passed back and forth, the only issue is chip values for players do not match between host and client.</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -659,10 +659,10 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
@@ -671,7 +671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -679,10 +679,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>36</v>
@@ -691,7 +691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -702,7 +702,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>38</v>
